--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_349__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_349__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5447,7 +5447,7 @@
                   <c:v>97.91325378417969</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48.63671493530273</c:v>
+                  <c:v>48.63671875</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>97.41950988769531</c:v>
@@ -5462,13 +5462,13 @@
                   <c:v>39.36083984375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>72.5177001953125</c:v>
+                  <c:v>72.51769256591797</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>71.80995178222656</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.1030969619751</c:v>
+                  <c:v>11.10310077667236</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>97.70916748046875</c:v>
@@ -5477,25 +5477,25 @@
                   <c:v>76.10050964355469</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51.80842208862305</c:v>
+                  <c:v>51.80841827392578</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>62.84860992431641</c:v>
+                  <c:v>62.84861373901367</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>56.25604248046875</c:v>
+                  <c:v>56.25603485107422</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>90.15074157714844</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>96.62179565429688</c:v>
+                  <c:v>96.62181091308594</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>95.21952819824219</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>90.36126708984375</c:v>
+                  <c:v>90.36128234863281</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>97.21505737304688</c:v>
@@ -5522,10 +5522,10 @@
                   <c:v>84.45260620117188</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>38.514892578125</c:v>
+                  <c:v>38.51489639282227</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>89.74885559082031</c:v>
+                  <c:v>89.74884033203125</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>97.74363708496094</c:v>
@@ -5534,7 +5534,7 @@
                   <c:v>58.96045303344727</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>94.03067016601562</c:v>
+                  <c:v>94.03065490722656</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>39.29615020751953</c:v>
@@ -5555,10 +5555,10 @@
                   <c:v>96.22798156738281</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>83.10063171386719</c:v>
+                  <c:v>83.10061645507812</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>96.82855224609375</c:v>
+                  <c:v>96.82853698730469</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>97.70503234863281</c:v>
@@ -5576,13 +5576,13 @@
                   <c:v>75.42101287841797</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>88.94711303710938</c:v>
+                  <c:v>88.94712829589844</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>55.87357330322266</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>96.06959533691406</c:v>
+                  <c:v>96.06961059570312</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>78.49391174316406</c:v>
@@ -5600,7 +5600,7 @@
                   <c:v>85.39451599121094</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>98.12371826171875</c:v>
+                  <c:v>98.12373352050781</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>97.52714538574219</c:v>
@@ -5615,13 +5615,13 @@
                   <c:v>96.98521423339844</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>89.0999755859375</c:v>
+                  <c:v>89.09999084472656</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>97.44869995117188</c:v>
+                  <c:v>97.44868469238281</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>61.37343978881836</c:v>
+                  <c:v>61.37344360351562</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>81.90689086914062</c:v>
@@ -5636,13 +5636,13 @@
                   <c:v>96.93217468261719</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>97.80447387695312</c:v>
+                  <c:v>97.80445861816406</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>27.82923698425293</c:v>
+                  <c:v>27.8292350769043</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>64.85751342773438</c:v>
+                  <c:v>64.85750579833984</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>88.09135437011719</c:v>
@@ -5651,13 +5651,13 @@
                   <c:v>51.89744567871094</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>84.88711547851562</c:v>
+                  <c:v>84.88713073730469</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>62.99120330810547</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>53.90201950073242</c:v>
+                  <c:v>53.90202331542969</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>97.73664855957031</c:v>
@@ -5675,7 +5675,7 @@
                   <c:v>90.83451843261719</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>96.6328125</c:v>
+                  <c:v>96.63282775878906</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>81.22560119628906</c:v>
@@ -6651,7 +6651,7 @@
         <v>50.2202</v>
       </c>
       <c r="F12">
-        <v>48.63671493530273</v>
+        <v>48.63671875</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6751,7 +6751,7 @@
         <v>73.52419999999999</v>
       </c>
       <c r="F17">
-        <v>72.5177001953125</v>
+        <v>72.51769256591797</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>12.1498</v>
       </c>
       <c r="F19">
-        <v>11.1030969619751</v>
+        <v>11.10310077667236</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>57.9449</v>
       </c>
       <c r="F22">
-        <v>51.80842208862305</v>
+        <v>51.80841827392578</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>63.2102</v>
       </c>
       <c r="F23">
-        <v>62.84860992431641</v>
+        <v>62.84861373901367</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>52.4045</v>
       </c>
       <c r="F24">
-        <v>56.25604248046875</v>
+        <v>56.25603485107422</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>96.85760000000001</v>
       </c>
       <c r="F26">
-        <v>96.62179565429688</v>
+        <v>96.62181091308594</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>89.6236</v>
       </c>
       <c r="F28">
-        <v>90.36126708984375</v>
+        <v>90.36128234863281</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>38.4808</v>
       </c>
       <c r="F37">
-        <v>38.514892578125</v>
+        <v>38.51489639282227</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F38">
-        <v>89.74885559082031</v>
+        <v>89.74884033203125</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>93.9979</v>
       </c>
       <c r="F41">
-        <v>94.03067016601562</v>
+        <v>94.03065490722656</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>82.63800000000001</v>
       </c>
       <c r="F48">
-        <v>83.10063171386719</v>
+        <v>83.10061645507812</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>96.76430000000001</v>
       </c>
       <c r="F49">
-        <v>96.82855224609375</v>
+        <v>96.82853698730469</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>89.41589999999999</v>
       </c>
       <c r="F55">
-        <v>88.94711303710938</v>
+        <v>88.94712829589844</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>95.4624</v>
       </c>
       <c r="F57">
-        <v>96.06959533691406</v>
+        <v>96.06961059570312</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>98.0121</v>
       </c>
       <c r="F63">
-        <v>98.12371826171875</v>
+        <v>98.12373352050781</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>89.94750000000001</v>
       </c>
       <c r="F68">
-        <v>89.0999755859375</v>
+        <v>89.09999084472656</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>97.4348</v>
       </c>
       <c r="F69">
-        <v>97.44869995117188</v>
+        <v>97.44868469238281</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>62.6537</v>
       </c>
       <c r="F70">
-        <v>61.37343978881836</v>
+        <v>61.37344360351562</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>97.50060000000001</v>
       </c>
       <c r="F75">
-        <v>97.80447387695312</v>
+        <v>97.80445861816406</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>28.0807</v>
       </c>
       <c r="F76">
-        <v>27.82923698425293</v>
+        <v>27.8292350769043</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>64.7646</v>
       </c>
       <c r="F77">
-        <v>64.85751342773438</v>
+        <v>64.85750579833984</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>81.8498</v>
       </c>
       <c r="F80">
-        <v>84.88711547851562</v>
+        <v>84.88713073730469</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.9032</v>
       </c>
       <c r="F82">
-        <v>53.90201950073242</v>
+        <v>53.90202331542969</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>95.86490000000001</v>
       </c>
       <c r="F88">
-        <v>96.6328125</v>
+        <v>96.63282775878906</v>
       </c>
     </row>
     <row r="89" spans="1:6">
